--- a/data/long_razon/P24_9-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_9-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>291,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-42,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1905,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 140,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 440,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 215,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,06; 302,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 71,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 289,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 109,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 116,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>622,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,79; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 94,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 172,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 75,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 279,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,47; 12,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 215,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 94,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 28,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>285,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-39,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>131,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,61; 853,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 54,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 162,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 162,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 125,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 67,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,13; 291,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 44,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 77,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 380,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 308,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 92,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 151,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 215,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 217,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 149,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 183,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 105,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>158,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 121,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 653,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 35,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 158,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 85,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 30,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 91,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 157,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 12,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>366,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-46,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 3686,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,03; 91,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 315,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 164,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,55; 85,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 188,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 305,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 35,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 140,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>171,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,43; 339,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 30,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 63,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 56,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 56,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 34,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 108,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 32,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 34,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
